--- a/data/trans_dic/P3A$yo-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$yo-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.6261320976315974</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9075507161784053</v>
+        <v>0.9075507161784055</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.7825148013856328</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.576137481330156</v>
+        <v>0.571867769289838</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8797591408180704</v>
+        <v>0.8823092472976621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7500199411808444</v>
+        <v>0.7532764105431876</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6743362262322009</v>
+        <v>0.6739462700356864</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9274844209533136</v>
+        <v>0.9318436905907611</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.807566253609197</v>
+        <v>0.8089538867064048</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.915205106854864</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7822414871933132</v>
+        <v>0.782241487193313</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5922563227725566</v>
+        <v>0.592533636773008</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8947589878909112</v>
+        <v>0.8959235034355935</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7581888364648007</v>
+        <v>0.7622980832453715</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6591595507758342</v>
+        <v>0.6650683267886667</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9304106622572743</v>
+        <v>0.9311242853344697</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7996658673353786</v>
+        <v>0.8019275234567504</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.6376621785918865</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9100992450071973</v>
+        <v>0.9100992450071974</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7739563209020932</v>
+        <v>0.7739563209020933</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6093810678086715</v>
+        <v>0.6058873277589472</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.890825561772094</v>
+        <v>0.889107109796185</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7514855971734937</v>
+        <v>0.7551845088605914</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6719924472198007</v>
+        <v>0.6720976477189068</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9279213751191574</v>
+        <v>0.9270271924593533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7897989985377044</v>
+        <v>0.79346091445116</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7267187827922557</v>
+        <v>0.7267187827922555</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8923214781646972</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.806661679461067</v>
+        <v>0.8066616794610671</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6938250312351051</v>
+        <v>0.6943013298536534</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8680302973371515</v>
+        <v>0.8654620727866285</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7855114262665132</v>
+        <v>0.7837333750530112</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7596024682531192</v>
+        <v>0.7597075006302416</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9132887608917493</v>
+        <v>0.9124867658550195</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8267679338426355</v>
+        <v>0.8252064216496704</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6582544152581372</v>
+        <v>0.6582544152581371</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9068316078079179</v>
+        <v>0.906831607807918</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.7862835989411363</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6409607749371741</v>
+        <v>0.639375254743203</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8971145511413371</v>
+        <v>0.8952450703375689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7750287315255858</v>
+        <v>0.7749740656881731</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6764180764567892</v>
+        <v>0.6758295813275903</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9172957079856544</v>
+        <v>0.9159738952681367</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7965549488120685</v>
+        <v>0.7963288285850184</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>286991</v>
+        <v>284864</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>548101</v>
+        <v>549689</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>840878</v>
+        <v>844529</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>335906</v>
+        <v>335712</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>577834</v>
+        <v>580550</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>905396</v>
+        <v>906951</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>568647</v>
+        <v>568913</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>997811</v>
+        <v>999110</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1573476</v>
+        <v>1582004</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>632883</v>
+        <v>638557</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1037569</v>
+        <v>1038365</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1659554</v>
+        <v>1664247</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>637704</v>
+        <v>634048</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>933266</v>
+        <v>931466</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1573702</v>
+        <v>1581448</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>703226</v>
+        <v>703336</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>972129</v>
+        <v>971193</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1653935</v>
+        <v>1661603</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>676789</v>
+        <v>677253</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>790207</v>
+        <v>787869</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1481310</v>
+        <v>1477957</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>740951</v>
+        <v>741054</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>831408</v>
+        <v>830678</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1559112</v>
+        <v>1556167</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2230666</v>
+        <v>2225148</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3315889</v>
+        <v>3308979</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5561887</v>
+        <v>5561494</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2354064</v>
+        <v>2352016</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3390482</v>
+        <v>3385596</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5716367</v>
+        <v>5714744</v>
       </c>
     </row>
     <row r="24">
